--- a/api/clv2/xlsx/en/OrganisationRegistrationAgency.xlsx
+++ b/api/clv2/xlsx/en/OrganisationRegistrationAgency.xlsx
@@ -19732,7 +19732,7 @@
     <hyperlink ref="E389" r:id="rId385"/>
     <hyperlink ref="E390" r:id="rId386"/>
     <hyperlink ref="E391" r:id="rId387"/>
-    <hyperlink ref="E392" r:id="rId388" location=""/>
+    <hyperlink ref="E392" r:id="rId388"/>
     <hyperlink ref="E393" r:id="rId389"/>
     <hyperlink ref="E394" r:id="rId390"/>
     <hyperlink ref="E395" r:id="rId391"/>
